--- a/project/rozkminki/słownikowanie.xlsx
+++ b/project/rozkminki/słownikowanie.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+  <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\PycharmProjects\MnrwOrdersFlow\project\rozkminki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D990CC-A4D0-49B9-9144-348A472E9CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23FEAC3-27E3-4923-BFB9-53AB528A6F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
